--- a/ig/ch-epreg/StructureDefinition-ch-epreg-practitionerrole-thcp.xlsx
+++ b/ig/ch-epreg/StructureDefinition-ch-epreg-practitionerrole-thcp.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$48</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1842" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1807" uniqueCount="315">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T15:10:51+00:00</t>
+    <t>2025-12-16T12:22:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -373,7 +373,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -434,208 +434,182 @@
     <t>PractitionerRole.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>PractitionerRole.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>PractitionerRole.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Business Identifiers that are specific to a role/location</t>
+  </si>
+  <si>
+    <t>Business Identifiers that are specific to a role/location.</t>
+  </si>
+  <si>
+    <t>Often, specific identities are assigned for the agent.</t>
+  </si>
+  <si>
+    <t>PRD-7 (or XCN.1)</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>./Identifiers</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>PractitionerRole.active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>Whether this practitioner role record is in active use</t>
+  </si>
+  <si>
+    <t>Whether this practitioner role record is in active use.</t>
+  </si>
+  <si>
+    <t>If this value is false, you may refer to the period to see when the role was in active use. If there is no period specified, no inference can be made about when it was active.</t>
+  </si>
+  <si>
+    <t>Need to be able to mark a practitioner role record as not to be used because it was created in error, or otherwise no longer in active use.</t>
+  </si>
+  <si>
+    <t>This resource is generally assumed to be active if no value is provided for the active element</t>
+  </si>
+  <si>
+    <t>STF-7</t>
+  </si>
+  <si>
+    <t>.statusCode</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>PractitionerRole.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>The period during which the practitioner is authorized to perform in these role(s)</t>
+  </si>
+  <si>
+    <t>The period during which the person is authorized to act as a practitioner in these role(s) for the organization.</t>
+  </si>
+  <si>
+    <t>Even after the agencies is revoked, the fact that it existed must still be recorded.</t>
+  </si>
+  <si>
+    <t>PRD-8/9 / PRA-5.4</t>
+  </si>
+  <si>
+    <t>.performance[@typeCode &lt;= 'PPRF'].ActDefinitionOrEvent.effectiveTime</t>
+  </si>
+  <si>
+    <t>(ServD maps Practitioners and Organizations via another entity, so this concept is not available)</t>
+  </si>
+  <si>
+    <t>FiveWs.done[x]</t>
+  </si>
+  <si>
+    <t>PractitionerRole.practitioner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-epreg/StructureDefinition/ch-epreg-practitioner-thcp)
+</t>
+  </si>
+  <si>
+    <t>Practitioner that is able to provide the defined services for the organization</t>
+  </si>
+  <si>
+    <t>Practitioner that is able to provide the defined services for the organization.</t>
+  </si>
+  <si>
+    <t>.player</t>
+  </si>
+  <si>
+    <t>PractitionerRole.practitioner.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>PractitionerRole.practitioner.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
 </t>
   </si>
   <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
     <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>PractitionerRole.extension:note</t>
-  </si>
-  <si>
-    <t>note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://fhir.ch/ig/ch-epreg/StructureDefinition/ch-epreg-ext-note}
-</t>
-  </si>
-  <si>
-    <t>CH EPREG Extension: Note</t>
-  </si>
-  <si>
-    <t>This extension represents a comment.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>Bemerkungen | Remarques</t>
-  </si>
-  <si>
-    <t>PractitionerRole.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>PractitionerRole.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Business Identifiers that are specific to a role/location</t>
-  </si>
-  <si>
-    <t>Business Identifiers that are specific to a role/location.</t>
-  </si>
-  <si>
-    <t>Often, specific identities are assigned for the agent.</t>
-  </si>
-  <si>
-    <t>PRD-7 (or XCN.1)</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>./Identifiers</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>PractitionerRole.active</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>Whether this practitioner role record is in active use</t>
-  </si>
-  <si>
-    <t>Whether this practitioner role record is in active use.</t>
-  </si>
-  <si>
-    <t>If this value is false, you may refer to the period to see when the role was in active use. If there is no period specified, no inference can be made about when it was active.</t>
-  </si>
-  <si>
-    <t>Need to be able to mark a practitioner role record as not to be used because it was created in error, or otherwise no longer in active use.</t>
-  </si>
-  <si>
-    <t>This resource is generally assumed to be active if no value is provided for the active element</t>
-  </si>
-  <si>
-    <t>STF-7</t>
-  </si>
-  <si>
-    <t>.statusCode</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>PractitionerRole.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>The period during which the practitioner is authorized to perform in these role(s)</t>
-  </si>
-  <si>
-    <t>The period during which the person is authorized to act as a practitioner in these role(s) for the organization.</t>
-  </si>
-  <si>
-    <t>Even after the agencies is revoked, the fact that it existed must still be recorded.</t>
-  </si>
-  <si>
-    <t>PRD-8/9 / PRA-5.4</t>
-  </si>
-  <si>
-    <t>.performance[@typeCode &lt;= 'PPRF'].ActDefinitionOrEvent.effectiveTime</t>
-  </si>
-  <si>
-    <t>(ServD maps Practitioners and Organizations via another entity, so this concept is not available)</t>
-  </si>
-  <si>
-    <t>FiveWs.done[x]</t>
-  </si>
-  <si>
-    <t>PractitionerRole.practitioner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-epreg/StructureDefinition/ch-epreg-practitioner-thcp)
-</t>
-  </si>
-  <si>
-    <t>Practitioner that is able to provide the defined services for the organization</t>
-  </si>
-  <si>
-    <t>Practitioner that is able to provide the defined services for the organization.</t>
-  </si>
-  <si>
-    <t>.player</t>
-  </si>
-  <si>
-    <t>PractitionerRole.practitioner.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>PractitionerRole.practitioner.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -679,7 +653,7 @@
     <t>Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
   </si>
   <si>
     <t>Reference.type</t>
@@ -835,7 +809,7 @@
     <t>PractitionerRole.healthcareService</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(HealthcareService)
+    <t xml:space="preserve">Reference(HealthcareService|4.0.1)
 </t>
   </si>
   <si>
@@ -1012,7 +986,7 @@
     <t>PractitionerRole.endpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Endpoint)
+    <t xml:space="preserve">Reference(Endpoint|4.0.1)
 </t>
   </si>
   <si>
@@ -1346,7 +1320,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO49"/>
+  <dimension ref="A1:AO48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2346,7 +2320,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2365,15 +2339,17 @@
         <v>79</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N9" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>79</v>
@@ -2410,14 +2386,16 @@
         <v>79</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AC9" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AD9" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>140</v>
@@ -2441,7 +2419,7 @@
         <v>79</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>79</v>
@@ -2455,41 +2433,43 @@
         <v>142</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="N10" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="O10" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="M10" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>79</v>
       </c>
@@ -2537,7 +2517,7 @@
         <v>79</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>80</v>
@@ -2546,19 +2526,19 @@
         <v>81</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>147</v>
+        <v>79</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>141</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>79</v>
@@ -2569,14 +2549,14 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>150</v>
+        <v>79</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -2589,25 +2569,23 @@
         <v>79</v>
       </c>
       <c r="I11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J11" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="J11" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="K11" t="s" s="2">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="L11" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>79</v>
@@ -2656,7 +2634,7 @@
         <v>79</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>80</v>
@@ -2668,22 +2646,22 @@
         <v>79</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>79</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" hidden="true">
@@ -2702,7 +2680,7 @@
         <v>80</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>79</v>
@@ -2722,14 +2700,18 @@
       <c r="M12" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="N12" s="2"/>
+      <c r="N12" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="Q12" s="2"/>
+      <c r="Q12" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="R12" t="s" s="2">
         <v>79</v>
       </c>
@@ -2779,7 +2761,7 @@
         <v>80</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>79</v>
@@ -2791,24 +2773,24 @@
         <v>79</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>163</v>
+        <v>79</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2831,26 +2813,22 @@
         <v>91</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N13" t="s" s="2">
         <v>169</v>
       </c>
+      <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>170</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="Q13" t="s" s="2">
-        <v>171</v>
-      </c>
+      <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
         <v>79</v>
       </c>
@@ -2894,7 +2872,7 @@
         <v>79</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>80</v>
@@ -2912,19 +2890,19 @@
         <v>79</v>
       </c>
       <c r="AL13" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AM13" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="AM13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>174</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>175</v>
       </c>
@@ -2943,7 +2921,7 @@
         <v>90</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>79</v>
@@ -2961,9 +2939,7 @@
         <v>178</v>
       </c>
       <c r="N14" s="2"/>
-      <c r="O14" t="s" s="2">
-        <v>179</v>
-      </c>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>79</v>
       </c>
@@ -3029,24 +3005,24 @@
         <v>79</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>180</v>
+        <v>79</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>182</v>
+        <v>79</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>183</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3060,22 +3036,22 @@
         <v>90</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3138,7 +3114,7 @@
         <v>79</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>79</v>
@@ -3147,7 +3123,7 @@
         <v>79</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>79</v>
@@ -3158,21 +3134,21 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>79</v>
@@ -3184,15 +3160,17 @@
         <v>79</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>190</v>
+        <v>136</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>191</v>
+        <v>137</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>79</v>
@@ -3229,31 +3207,31 @@
         <v>79</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>79</v>
+        <v>188</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>79</v>
+        <v>189</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>79</v>
+        <v>190</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>79</v>
@@ -3262,7 +3240,7 @@
         <v>79</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>79</v>
@@ -3273,21 +3251,21 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>150</v>
+        <v>79</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>79</v>
@@ -3296,19 +3274,19 @@
         <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>135</v>
+        <v>181</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>153</v>
+        <v>195</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3346,31 +3324,31 @@
         <v>79</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>198</v>
+        <v>79</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>79</v>
+        <v>197</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>79</v>
@@ -3379,7 +3357,7 @@
         <v>79</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>194</v>
+        <v>133</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>79</v>
@@ -3390,10 +3368,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3401,7 +3379,7 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>90</v>
@@ -3416,16 +3394,16 @@
         <v>91</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>190</v>
+        <v>104</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="N18" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3451,13 +3429,13 @@
         <v>79</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>79</v>
+        <v>202</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>79</v>
+        <v>203</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>79</v>
+        <v>204</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>79</v>
@@ -3475,7 +3453,7 @@
         <v>79</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -3484,7 +3462,7 @@
         <v>90</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>205</v>
+        <v>79</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>102</v>
@@ -3533,7 +3511,7 @@
         <v>91</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>104</v>
+        <v>148</v>
       </c>
       <c r="L19" t="s" s="2">
         <v>207</v>
@@ -3568,31 +3546,31 @@
         <v>79</v>
       </c>
       <c r="X19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF19" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -3613,7 +3591,7 @@
         <v>79</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>133</v>
+        <v>211</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>79</v>
@@ -3624,10 +3602,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3650,16 +3628,16 @@
         <v>91</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="N20" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3709,7 +3687,7 @@
         <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -3730,7 +3708,7 @@
         <v>79</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>219</v>
+        <v>133</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>79</v>
@@ -3739,12 +3717,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3758,7 +3736,7 @@
         <v>90</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>79</v>
@@ -3767,17 +3745,15 @@
         <v>91</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>79</v>
@@ -3826,7 +3802,7 @@
         <v>79</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -3847,7 +3823,7 @@
         <v>79</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>133</v>
+        <v>221</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>79</v>
@@ -3858,10 +3834,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3875,22 +3851,22 @@
         <v>90</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>226</v>
+        <v>181</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>228</v>
+        <v>183</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3941,7 +3917,7 @@
         <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>225</v>
+        <v>184</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -3953,7 +3929,7 @@
         <v>79</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>79</v>
@@ -3962,7 +3938,7 @@
         <v>79</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>229</v>
+        <v>185</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>79</v>
@@ -3973,21 +3949,21 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>79</v>
@@ -3999,15 +3975,17 @@
         <v>79</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>190</v>
+        <v>136</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>191</v>
+        <v>137</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>79</v>
@@ -4044,31 +4022,31 @@
         <v>79</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>79</v>
+        <v>188</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>79</v>
+        <v>189</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>79</v>
+        <v>190</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>79</v>
@@ -4077,7 +4055,7 @@
         <v>79</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>79</v>
@@ -4088,21 +4066,21 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>150</v>
+        <v>79</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>79</v>
@@ -4111,19 +4089,19 @@
         <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>135</v>
+        <v>181</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>153</v>
+        <v>195</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4161,31 +4139,31 @@
         <v>79</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>198</v>
+        <v>79</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>79</v>
+        <v>197</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>79</v>
@@ -4194,7 +4172,7 @@
         <v>79</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>194</v>
+        <v>133</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>79</v>
@@ -4205,10 +4183,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4216,7 +4194,7 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>90</v>
@@ -4231,16 +4209,16 @@
         <v>91</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>190</v>
+        <v>104</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="N25" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4266,13 +4244,13 @@
         <v>79</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>79</v>
+        <v>202</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>79</v>
+        <v>203</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>79</v>
+        <v>204</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>79</v>
@@ -4290,7 +4268,7 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -4299,7 +4277,7 @@
         <v>90</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>205</v>
+        <v>79</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>102</v>
@@ -4322,10 +4300,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4348,7 +4326,7 @@
         <v>91</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>104</v>
+        <v>148</v>
       </c>
       <c r="L26" t="s" s="2">
         <v>207</v>
@@ -4383,31 +4361,31 @@
         <v>79</v>
       </c>
       <c r="X26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF26" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -4428,7 +4406,7 @@
         <v>79</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>133</v>
+        <v>211</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>79</v>
@@ -4439,10 +4417,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4465,16 +4443,16 @@
         <v>91</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="N27" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4524,7 +4502,7 @@
         <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -4545,7 +4523,7 @@
         <v>79</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>219</v>
+        <v>133</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>79</v>
@@ -4554,12 +4532,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4570,10 +4548,10 @@
         <v>80</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>79</v>
@@ -4582,18 +4560,20 @@
         <v>91</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="O28" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>79</v>
       </c>
@@ -4617,13 +4597,13 @@
         <v>79</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>79</v>
+        <v>234</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>79</v>
+        <v>235</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>79</v>
@@ -4641,13 +4621,13 @@
         <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>79</v>
@@ -4656,27 +4636,27 @@
         <v>102</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>79</v>
+        <v>236</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>79</v>
+        <v>237</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>133</v>
+        <v>238</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>79</v>
+        <v>173</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4699,20 +4679,16 @@
         <v>91</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="O29" t="s" s="2">
         <v>241</v>
       </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>79</v>
       </c>
@@ -4739,11 +4715,11 @@
         <v>114</v>
       </c>
       <c r="Y29" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="Z29" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="Z29" t="s" s="2">
-        <v>243</v>
-      </c>
       <c r="AA29" t="s" s="2">
         <v>79</v>
       </c>
@@ -4760,7 +4736,7 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -4775,16 +4751,16 @@
         <v>102</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AN29" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>79</v>
@@ -4792,10 +4768,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4809,7 +4785,7 @@
         <v>81</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>79</v>
@@ -4818,7 +4794,7 @@
         <v>91</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="L30" t="s" s="2">
         <v>248</v>
@@ -4851,13 +4827,13 @@
         <v>79</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>242</v>
+        <v>79</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>250</v>
+        <v>79</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>79</v>
@@ -4875,7 +4851,7 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -4890,27 +4866,27 @@
         <v>102</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>244</v>
+        <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="AM30" t="s" s="2">
+      <c r="AO30" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="AO30" t="s" s="2">
-        <v>79</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4930,16 +4906,16 @@
         <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4990,7 +4966,7 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5008,24 +4984,24 @@
         <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>79</v>
+        <v>257</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>258</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>259</v>
+        <v>79</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>260</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5045,19 +5021,21 @@
         <v>79</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="N32" s="2"/>
+      <c r="O32" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="M32" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>79</v>
       </c>
@@ -5105,7 +5083,7 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5123,10 +5101,10 @@
         <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>265</v>
+        <v>79</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>79</v>
@@ -5137,10 +5115,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5160,21 +5138,21 @@
         <v>79</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="M33" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" t="s" s="2">
-        <v>271</v>
-      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>79</v>
       </c>
@@ -5222,7 +5200,7 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -5243,7 +5221,7 @@
         <v>79</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>79</v>
@@ -5254,10 +5232,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5268,7 +5246,7 @@
         <v>80</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>79</v>
@@ -5280,17 +5258,15 @@
         <v>79</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>274</v>
+        <v>181</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>275</v>
+        <v>182</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>277</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>79</v>
@@ -5339,19 +5315,19 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>273</v>
+        <v>184</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>79</v>
@@ -5360,7 +5336,7 @@
         <v>79</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>278</v>
+        <v>185</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>79</v>
@@ -5371,21 +5347,21 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>79</v>
@@ -5397,15 +5373,17 @@
         <v>79</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>190</v>
+        <v>136</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>191</v>
+        <v>137</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>79</v>
@@ -5454,19 +5432,19 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>79</v>
@@ -5475,7 +5453,7 @@
         <v>79</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>79</v>
@@ -5486,14 +5464,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>150</v>
+        <v>274</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5506,24 +5484,26 @@
         <v>79</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>196</v>
+        <v>275</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>197</v>
+        <v>276</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="O36" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>79</v>
       </c>
@@ -5571,7 +5551,7 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>199</v>
+        <v>277</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -5592,7 +5572,7 @@
         <v>79</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>194</v>
+        <v>133</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>79</v>
@@ -5603,14 +5583,14 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>282</v>
+        <v>79</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -5623,26 +5603,22 @@
         <v>79</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>79</v>
       </c>
@@ -5666,13 +5642,13 @@
         <v>79</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>79</v>
+        <v>281</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>79</v>
+        <v>282</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>79</v>
+        <v>283</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>79</v>
@@ -5690,7 +5666,7 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -5702,7 +5678,7 @@
         <v>79</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>79</v>
@@ -5711,7 +5687,7 @@
         <v>79</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>133</v>
+        <v>270</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>79</v>
@@ -5722,10 +5698,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5736,7 +5712,7 @@
         <v>80</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>79</v>
@@ -5748,13 +5724,13 @@
         <v>79</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>110</v>
+        <v>157</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5781,13 +5757,13 @@
         <v>79</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>289</v>
+        <v>79</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>290</v>
+        <v>79</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>291</v>
+        <v>79</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>79</v>
@@ -5805,13 +5781,13 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>79</v>
@@ -5826,7 +5802,7 @@
         <v>79</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>79</v>
@@ -5837,10 +5813,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5863,15 +5839,17 @@
         <v>79</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>166</v>
+        <v>288</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>290</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>79</v>
@@ -5920,7 +5898,7 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -5941,7 +5919,7 @@
         <v>79</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>79</v>
@@ -5952,10 +5930,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5978,16 +5956,16 @@
         <v>79</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6037,7 +6015,7 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6058,7 +6036,7 @@
         <v>79</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>79</v>
@@ -6069,10 +6047,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6083,7 +6061,7 @@
         <v>80</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>79</v>
@@ -6095,17 +6073,15 @@
         <v>79</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="L41" t="s" s="2">
-        <v>301</v>
-      </c>
       <c r="M41" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>299</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>79</v>
@@ -6154,13 +6130,13 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>79</v>
@@ -6175,7 +6151,7 @@
         <v>79</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>79</v>
@@ -6186,10 +6162,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6200,7 +6176,7 @@
         <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>79</v>
@@ -6212,13 +6188,13 @@
         <v>79</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>274</v>
+        <v>181</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>304</v>
+        <v>182</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>305</v>
+        <v>183</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6269,19 +6245,19 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>303</v>
+        <v>184</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>79</v>
@@ -6290,7 +6266,7 @@
         <v>79</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>278</v>
+        <v>185</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
@@ -6301,21 +6277,21 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>79</v>
@@ -6327,15 +6303,17 @@
         <v>79</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>190</v>
+        <v>136</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>191</v>
+        <v>137</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>79</v>
@@ -6384,19 +6362,19 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>79</v>
@@ -6405,7 +6383,7 @@
         <v>79</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
@@ -6416,14 +6394,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>150</v>
+        <v>274</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6436,24 +6414,26 @@
         <v>79</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>196</v>
+        <v>275</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>197</v>
+        <v>276</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="O44" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>79</v>
       </c>
@@ -6501,7 +6481,7 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>199</v>
+        <v>277</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -6522,7 +6502,7 @@
         <v>79</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>194</v>
+        <v>133</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
@@ -6533,46 +6513,42 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>282</v>
+        <v>79</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>135</v>
+        <v>181</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>79</v>
       </c>
@@ -6620,19 +6596,19 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>79</v>
@@ -6641,7 +6617,7 @@
         <v>79</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>133</v>
+        <v>185</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>79</v>
@@ -6652,10 +6628,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6663,7 +6639,7 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>90</v>
@@ -6678,13 +6654,13 @@
         <v>79</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6735,10 +6711,10 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>90</v>
@@ -6756,7 +6732,7 @@
         <v>79</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>194</v>
+        <v>270</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>79</v>
@@ -6767,10 +6743,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6793,13 +6769,13 @@
         <v>79</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6850,7 +6826,7 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -6871,7 +6847,7 @@
         <v>79</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>79</v>
@@ -6882,10 +6858,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6896,7 +6872,7 @@
         <v>80</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>79</v>
@@ -6908,16 +6884,18 @@
         <v>79</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>190</v>
+        <v>311</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
+      <c r="O48" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>79</v>
       </c>
@@ -6965,13 +6943,13 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>79</v>
@@ -6986,144 +6964,27 @@
         <v>79</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>278</v>
+        <v>185</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="49" hidden="true">
-      <c r="A49" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="C49" s="2"/>
-      <c r="D49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E49" s="2"/>
-      <c r="F49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K49" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="P49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q49" s="2"/>
-      <c r="R49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO49" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO49">
-    <filterColumn colId="6">
+  <autoFilter ref="A1:AO48">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI48">
+  <conditionalFormatting sqref="A2:AI47">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
